--- a/data/Улахан Ан 2 скв 5 поле.xlsx
+++ b/data/Улахан Ан 2 скв 5 поле.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\java\well_average_daily_Value_calculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2019A760-03D0-4BBC-A92A-CF82D24CC4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB56A09-629F-448E-8667-9DE2E9E76AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{362FFE74-8FF1-4773-88F7-95CFB63BDCF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{362FFE74-8FF1-4773-88F7-95CFB63BDCF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Улахан Ан 2 скв 5 поле" sheetId="1" r:id="rId1"/>
@@ -82975,7 +82975,7 @@
   <dimension ref="A1:P361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
